--- a/data/trans_camb/P32B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.250675585396748</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.2178131906982709</v>
+        <v>-0.2178131906982713</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.6115210511131828</v>
@@ -655,7 +655,7 @@
         <v>-0.4279349323409142</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.294383399762248</v>
+        <v>3.294383399762249</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.746272725030241</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.382269984594699</v>
+        <v>1.533390853381519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8333683758886464</v>
+        <v>-1.040618871950512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.059852006023337</v>
+        <v>-1.849431172687566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.387474790123089</v>
+        <v>-2.606273270278293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.048137476486132</v>
+        <v>-3.37240267063388</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.191521784611431</v>
+        <v>-1.92565611456859</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7662174148459895</v>
+        <v>0.7163146456355066</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.133129746703271</v>
+        <v>-1.424744389662019</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9899335362213354</v>
+        <v>-1.178791676456723</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.528338205121103</v>
+        <v>7.186368371488101</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.108950594999114</v>
+        <v>4.015442998457807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.349868180918204</v>
+        <v>3.187904894787001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.976088783244654</v>
+        <v>3.904337755286623</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.522158224283143</v>
+        <v>2.445065736354669</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.2913141195312</v>
+        <v>11.67670127096491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.099815488818611</v>
+        <v>5.153476162795265</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.62693524067321</v>
+        <v>2.382743273407077</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.300630545642688</v>
+        <v>5.12361863236381</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.031694559223524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1796762377025501</v>
+        <v>-0.1796762377025504</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2804360652163416</v>
@@ -760,7 +760,7 @@
         <v>-0.1962457193842305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.510763883371803</v>
+        <v>1.510763883371804</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.717822420349235</v>
@@ -780,27 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.07697171845482023</v>
+        <v>0.2683239196191471</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.706840733181119</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7557948557713732</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-0.7785793016838738</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1645592869676624</v>
+        <v>0.1019727200699833</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5368541416294218</v>
+        <v>-0.611977631855699</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5986554244253121</v>
+        <v>-0.7209014661577652</v>
       </c>
     </row>
     <row r="9">
@@ -811,25 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>18.54317926560264</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr"/>
+        <v>23.1240838281943</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.419550500692203</v>
+      </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>5.39642791900377</v>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
+        <v>5.726335060194787</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.750387641162753</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>17.49893789574899</v>
+        <v>14.63256238969956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.520847774731505</v>
+        <v>5.659948796729442</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.306535682826224</v>
+        <v>2.955022427182102</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.112191289592918</v>
+        <v>5.2345100378732</v>
       </c>
     </row>
     <row r="10">
@@ -850,7 +856,7 @@
         <v>2.780538917655912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.814326484028245</v>
+        <v>3.814326484028244</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4096639279757513</v>
@@ -879,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.037225940056271</v>
+        <v>1.002057931932339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.241730279901264</v>
+        <v>0.9780704496826008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.121924582710279</v>
+        <v>0.9038096308125909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.347183768227566</v>
+        <v>-1.910167442699851</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.009513906747366</v>
+        <v>-0.9767062707293861</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.894576691070565</v>
+        <v>-1.912199747382969</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.396350502505407</v>
+        <v>0.4313022456820761</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8190401333686302</v>
+        <v>0.9646816493009707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4040203988954972</v>
+        <v>0.5514645064072726</v>
       </c>
     </row>
     <row r="12">
@@ -914,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.560606005679492</v>
+        <v>4.761334880076451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.972607334331716</v>
+        <v>5.021197280978424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.467870350999904</v>
+        <v>8.619602965057075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.12848688627209</v>
+        <v>1.142567425715143</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.439514325556398</v>
+        <v>3.795368792880321</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.2661381995476</v>
+        <v>1.709704755142121</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.19717589529904</v>
+        <v>3.064959939538201</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.713560683512009</v>
+        <v>3.912737981998094</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.511560602287849</v>
+        <v>5.500350632255781</v>
       </c>
     </row>
     <row r="13">
@@ -955,7 +961,7 @@
         <v>4.955257995734005</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>6.797592973183447</v>
+        <v>6.797592973183446</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4351259660636528</v>
@@ -973,7 +979,7 @@
         <v>3.253206513568538</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>3.327220390022417</v>
+        <v>3.327220390022416</v>
       </c>
     </row>
     <row r="14">
@@ -984,27 +990,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4942280120653049</v>
+        <v>0.4174396675520076</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4462449650301235</v>
+        <v>0.4126444328947511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3620650978801787</v>
+        <v>0.2636733795705793</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.826169827353651</v>
+        <v>-0.7634683761861285</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.09884173356002771</v>
+        <v>0.1772488096659904</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4440817543924651</v>
+        <v>0.4497646213517983</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1326187601005792</v>
+        <v>0.04018500307641278</v>
       </c>
     </row>
     <row r="15">
@@ -1014,24 +1020,24 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>21.34162031437576</v>
-      </c>
+      <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>23.07487998413976</v>
-      </c>
-      <c r="E15" s="6" t="inlineStr"/>
+        <v>27.10189308539341</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>44.72615270624146</v>
+      </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>9.938107491471081</v>
+        <v>9.773070345073213</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11.90816761220207</v>
+        <v>12.90468520040602</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15.55291750246559</v>
+        <v>13.85668559984985</v>
       </c>
     </row>
     <row r="16">
@@ -1061,7 +1067,7 @@
         <v>0.256112119738406</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7803363674313823</v>
+        <v>0.7803363674313818</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.545964134023642</v>
@@ -1081,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.064861310849404</v>
+        <v>0.7764421652369788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1638770257100482</v>
+        <v>0.176169035377647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2188522156435119</v>
+        <v>-0.3125786875162297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.430219867253385</v>
+        <v>-1.439275940705851</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.036033289284816</v>
+        <v>-1.146417645704263</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5858902532406735</v>
+        <v>-0.6108056481954015</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5092509107882801</v>
+        <v>0.4916040357941563</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.02743959756676038</v>
+        <v>-0.04393735283868695</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.02986074030328831</v>
+        <v>-0.02826771349875616</v>
       </c>
     </row>
     <row r="18">
@@ -1116,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.664905292510444</v>
+        <v>4.309808064084775</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.791281014410731</v>
+        <v>3.164956066618672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.986284978598728</v>
+        <v>3.117249383019109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7859684262239961</v>
+        <v>0.78754316147973</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.450193727138957</v>
+        <v>1.475997666097515</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.925164000912756</v>
+        <v>2.842194310430904</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.818847300139831</v>
+        <v>2.986268357418971</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.982074148791394</v>
+        <v>2.005023682716177</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.272724719413657</v>
+        <v>2.276710022785747</v>
       </c>
     </row>
     <row r="19">
@@ -1157,7 +1163,7 @@
         <v>2.91734395372138</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.201480573139773</v>
+        <v>2.201480573139774</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1456876797943323</v>
@@ -1166,7 +1172,7 @@
         <v>0.5644166149672996</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.719695309583013</v>
+        <v>1.719695309583012</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>3.378730098962236</v>
@@ -1186,23 +1192,23 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.136026093135571</v>
+        <v>0.1503345191199738</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3935827150950576</v>
+        <v>-0.2570347143776812</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.002071448197205725</v>
+        <v>-0.08809169964821303</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2886762497100497</v>
+        <v>-0.2746233883204028</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4763355252841522</v>
+        <v>-0.4205227235645059</v>
       </c>
     </row>
     <row r="21">
@@ -1219,12 +1225,12 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>14.79126762674922</v>
-      </c>
-      <c r="J21" s="6" t="inlineStr"/>
-      <c r="K21" s="6" t="n">
-        <v>14.10552205730625</v>
-      </c>
+        <v>18.09952199384606</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>11.5840085498415</v>
+      </c>
+      <c r="K21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1273,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.547276334941001</v>
+        <v>0.5363430716178171</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.034281259023337</v>
+        <v>1.051767433201333</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4875311730916919</v>
+        <v>0.4785881739675354</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.645906675933464</v>
+        <v>-4.628362326867117</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.427684983266329</v>
+        <v>-2.306787879007979</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.121165074831291</v>
+        <v>-1.762167145525246</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.08955357191175152</v>
+        <v>-0.06223328040274526</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3809524086517006</v>
+        <v>0.3643416184124228</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2527108563390637</v>
+        <v>0.1786254212803113</v>
       </c>
     </row>
     <row r="24">
@@ -1308,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.28684159654991</v>
+        <v>3.175399304368429</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.983126109498961</v>
+        <v>4.756906457443174</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.093015513306375</v>
+        <v>3.098307104196078</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.648212327545525</v>
+        <v>1.675626511947164</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.362815399028779</v>
+        <v>2.456669833426217</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.789493241660375</v>
+        <v>1.907781324483479</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.978926062604662</v>
+        <v>2.925331851975717</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.401592216940054</v>
+        <v>2.212396242228038</v>
       </c>
     </row>
     <row r="25">
@@ -1373,7 +1379,7 @@
         <v>5.739678768468811</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>4.703146442162349</v>
+        <v>4.703146442162351</v>
       </c>
     </row>
     <row r="26">
@@ -1428,7 +1434,7 @@
         <v>-1.709047475631701</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.2497111826459508</v>
+        <v>-0.2497111826459501</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.365797430832648</v>
@@ -1457,31 +1463,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.24833587484161</v>
+        <v>-5.27245530076355</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.360808565893518</v>
+        <v>-5.656146089686048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.968162741738117</v>
+        <v>-4.125032904399594</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.359543662606434</v>
+        <v>-6.814334090176012</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.12069375930184</v>
+        <v>-6.903987395579375</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.58026795205199</v>
+        <v>-2.965850461195388</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.355773572745399</v>
+        <v>-4.352536788380144</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.494535568695055</v>
+        <v>-4.789530246642955</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.10097066590942</v>
+        <v>-2.909950989823424</v>
       </c>
     </row>
     <row r="30">
@@ -1492,13 +1498,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.648233249510379</v>
+        <v>2.068633870788226</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.239850162369201</v>
+        <v>1.309382633847649</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.589574550094603</v>
+        <v>2.850422373373591</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
@@ -1507,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.76621239324614</v>
+        <v>3.813493772804466</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8170739025341931</v>
+        <v>0.8864651454774272</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4998008565628434</v>
+        <v>0.4115690984863883</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.436443804307077</v>
+        <v>2.450616364402204</v>
       </c>
     </row>
     <row r="31">
@@ -1533,7 +1539,7 @@
         <v>-0.4904326969940777</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07165776874008026</v>
+        <v>-0.07165776874008005</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-1</v>
@@ -1562,25 +1568,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.98959929050347</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9139561675098321</v>
+        <v>-0.9434663796452333</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6951043985167403</v>
+        <v>-0.698118078000393</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.9421301651481603</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9175648117105031</v>
+        <v>-0.9263900053438469</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6153427722874605</v>
+        <v>-0.6096446038691589</v>
       </c>
     </row>
     <row r="33">
@@ -1591,25 +1597,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.846370790548229</v>
+        <v>2.321161898453612</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.061788887020916</v>
+        <v>1.190709018002864</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.765996435061577</v>
+        <v>2.121058457737104</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>1.313977954331872</v>
+        <v>2.745543693673077</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8883141754348061</v>
+        <v>0.7685943391396894</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.835370596445689</v>
+        <v>1.882504143402493</v>
       </c>
     </row>
     <row r="34">
@@ -1659,13 +1665,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6196312283233282</v>
+        <v>0.6308692773229132</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.5917598883851058</v>
+        <v>0.6002355864287242</v>
       </c>
       <c r="F35" s="5" t="inlineStr"/>
       <c r="G35" s="5" t="inlineStr"/>
@@ -1673,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.4590237467577284</v>
+        <v>0.4623004517370156</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5341403251849692</v>
+        <v>0.536314074401824</v>
       </c>
     </row>
     <row r="36">
@@ -1690,27 +1696,27 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.4390876923809</v>
+        <v>7.698982273270687</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.727318497633411</v>
+        <v>2.954967514752767</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.674316315314537</v>
+        <v>3.684613095688666</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="n">
-        <v>3.222307853091856</v>
+        <v>3.886972453406042</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.355160013234574</v>
+        <v>5.823563120582191</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.180785489233824</v>
+        <v>2.187539151239849</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.868570323968356</v>
+        <v>2.728685697211837</v>
       </c>
     </row>
     <row r="37">
@@ -1810,7 +1816,7 @@
         <v>-0.5392167109257986</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.3682731100192632</v>
+        <v>0.3682731100192635</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -1828,7 +1834,7 @@
         <v>-0.5175193347140288</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.554502752110504</v>
+        <v>0.5545027521105044</v>
       </c>
     </row>
     <row r="41">
@@ -1839,13 +1845,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.691665360853802</v>
+        <v>-2.758269138274869</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.572541658738324</v>
+        <v>-4.844395024257038</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.113755705015527</v>
+        <v>-4.361744209920451</v>
       </c>
       <c r="F41" s="5" t="inlineStr"/>
       <c r="G41" s="5" t="inlineStr"/>
@@ -1853,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.218272912817483</v>
+        <v>-2.219667633179493</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.557621082570475</v>
+        <v>-4.85686374716119</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.100240114486432</v>
+        <v>-3.345757437459314</v>
       </c>
     </row>
     <row r="42">
@@ -1870,27 +1876,27 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.6858338605128</v>
+        <v>10.62116077306385</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.665343491807415</v>
+        <v>1.691851044953252</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.966450409903604</v>
+        <v>3.003847570478603</v>
       </c>
       <c r="F42" s="5" t="inlineStr"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="n">
-        <v>8.716029031912107</v>
+        <v>7.454761491199323</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.30760109171363</v>
+        <v>8.17851337538797</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.212824930437059</v>
+        <v>1.211682297820616</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.56467568833181</v>
+        <v>2.716939103665252</v>
       </c>
     </row>
     <row r="43">
@@ -1907,7 +1913,7 @@
         <v>-0.3917060050072285</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2675265542671283</v>
+        <v>0.2675265542671286</v>
       </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr"/>
@@ -1923,7 +1929,7 @@
         <v>-0.4608889742230838</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4938254234796985</v>
+        <v>0.4938254234796988</v>
       </c>
     </row>
     <row r="44">
@@ -1996,7 +2002,7 @@
         <v>0.8260987666669342</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.182162679671028</v>
+        <v>1.182162679671029</v>
       </c>
     </row>
     <row r="47">
@@ -2007,31 +2013,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.189181894097727</v>
+        <v>1.220934231332954</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.5668922452048821</v>
+        <v>0.5060386906546149</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.4910711399143008</v>
+        <v>0.5547993097546641</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.244898551999104</v>
+        <v>-1.22567460808155</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.9847991260586889</v>
+        <v>-0.9833612907376638</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2389002988508663</v>
+        <v>-0.2022082386149481</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.5655117285746131</v>
+        <v>0.6328687920935814</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.2647045692407229</v>
+        <v>0.2365085503737366</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.529218930552702</v>
+        <v>0.48800628409644</v>
       </c>
     </row>
     <row r="48">
@@ -2042,31 +2048,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.897125848704773</v>
+        <v>2.965394803575033</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.119584740868879</v>
+        <v>2.152858144484673</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.238607454732324</v>
+        <v>2.390667335284377</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.4117055861207077</v>
+        <v>0.53414699963245</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7998292157664973</v>
+        <v>0.8414963233812356</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.20289270494156</v>
+        <v>2.237679962852395</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.87647939821152</v>
+        <v>1.898264123681189</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.379749406723124</v>
+        <v>1.448425062789359</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.021033076719496</v>
+        <v>1.92011843616403</v>
       </c>
     </row>
     <row r="49">
@@ -2112,31 +2118,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.9584943831502485</v>
+        <v>0.9696986139763633</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4447614802367515</v>
+        <v>0.3470715669636288</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4036575464483247</v>
+        <v>0.4065799591141812</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7959958907380382</v>
+        <v>-0.7509465891655132</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6114265819625775</v>
+        <v>-0.6185293275986808</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2361992111076425</v>
+        <v>-0.2407464035197683</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4383415230862745</v>
+        <v>0.4801074021631918</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.176188904662528</v>
+        <v>0.1720126954318362</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3266151188460676</v>
+        <v>0.3878068995619885</v>
       </c>
     </row>
     <row r="51">
@@ -2147,31 +2153,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>5.772688768756611</v>
+        <v>5.294593494380378</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.968380612999252</v>
+        <v>3.640425885062984</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>4.384637634321572</v>
+        <v>4.26419316771578</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7785933244048925</v>
+        <v>1.560742880925895</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.370395414600334</v>
+        <v>1.518934407711969</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>3.462199100541165</v>
+        <v>3.628388681171029</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>2.801442246387229</v>
+        <v>2.962473725712704</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>2.149318228554129</v>
+        <v>2.21329363760147</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.823795837033994</v>
+        <v>3.044715455876448</v>
       </c>
     </row>
     <row r="52">
